--- a/SoftwareDesignUsingNLP/data/Banking Data/Domain.xlsx
+++ b/SoftwareDesignUsingNLP/data/Banking Data/Domain.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Domain" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,38 +22,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Verify PIN</t>
-  </si>
-  <si>
-    <t>Transfer Money</t>
-  </si>
-  <si>
     <t>This use case is intended for transfering money from one account to another. This will require source account number, target account number, IFSC code, transfer date which will say when to transfer, and which account type to be used</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Withdraw cash</t>
-  </si>
-  <si>
     <t>This function manages actual process of withdrawing cash, based on bill type and maximum amount limit that can be withdrawn from the ATM.</t>
   </si>
   <si>
-    <t>Apply loan</t>
-  </si>
-  <si>
     <t xml:space="preserve">This function is required if a customer is willing to apply for loan. This requires type of loan like car loan, house loan. Also account number is required along with loan amount requested. </t>
   </si>
   <si>
-    <t>Restock cash</t>
-  </si>
-  <si>
     <t>Credit_check</t>
   </si>
   <si>
@@ -66,12 +51,6 @@
     <t xml:space="preserve">Function deals with Verification of PIN entered by Customer at ATM. It will be used for withdrawing money, checking balance  or depositing cheque. Input required for this are Account number, Name of customer </t>
   </si>
   <si>
-    <t>Review transactions</t>
-  </si>
-  <si>
-    <t>Limit Cash</t>
-  </si>
-  <si>
     <t xml:space="preserve">Limit cash withdrawl function is used by banker to limit the amount of cash that can be dispensed at any given time to one customer. It will also need to invoke restock cash </t>
   </si>
   <si>
@@ -81,30 +60,15 @@
     <t xml:space="preserve">A customer to be able into the system, he/she has to enter username and password which he/she has created before.  This function might be for a customer or an Admin also. </t>
   </si>
   <si>
-    <t xml:space="preserve">View Account </t>
-  </si>
-  <si>
     <t>View Account allows a customer to view the minute balance information on deposit (saving/current), credit card, etc. The customer can also view transaction history with retention period up to a maximum of 90 days. Within this feature, the customer can request for account such as “view online, by e-mail or by post option. But the customer most be logged in the internet banking.</t>
   </si>
   <si>
-    <t xml:space="preserve">Transfer Funds </t>
-  </si>
-  <si>
     <t>The customer must be logged into Banking System to be able to make his/her transaction for transfer funds. Transfer Funds allows customer to transfer funds between authorized accounts – own personal accounts. Requested transfer take place immediately or at a selected future date specified by customer. The customer can save up to a maximum of 10 accounts and update or delete the account details. All the outstanding future transfers are recorded in a table. The customer can enquire whether there is any funds transfer pending.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pay Bills </t>
-  </si>
-  <si>
     <t xml:space="preserve">The customer most be logged into Banking System. Customers can make payments to corporations that include utilities, assessments, Insurance, telecommunications, and other services. The customers can use Online Pay Bill service to pay bills by debiting their account. This payment made to payee corporations that the customer has registered with internet banking by using the Registered Bill. But with new payee corporations that the customer has not registered, this payment can be made immediately or at a later date.  There are Enquiry Future Payment Status, this function lets customer enquires whether if has scheduled any future payments or not. And Cancel Future Payment lets customer cancels his/her scheduled future payments if he/she changes his/her mind. </t>
   </si>
   <si>
-    <t>Cheque Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The customer most be logged into Banking System.The customer may enquiries cheque status, whether it is paid, unpaid, stopped or returned. It also allows customer to stop cheque payment and to request for a cheque book online. </t>
-  </si>
-  <si>
     <t>Utility</t>
   </si>
   <si>
@@ -123,27 +87,15 @@
     <t>An administrator is that person who makes some editing for the internet banking system like add/cancel customer, check the transactions etc. but this administrator must be valid user. Therefore the administrator must have ausername and password.</t>
   </si>
   <si>
-    <t>Pay Registered Payment</t>
-  </si>
-  <si>
     <t>This function allows a customer to pay Immediate and future payment to corporations, those customers have registered the corportations.</t>
   </si>
   <si>
-    <t>Open Payment</t>
-  </si>
-  <si>
     <t>This function allows a customer to pay Immediate and  future Payment to corporations that customer has not registered.</t>
   </si>
   <si>
-    <t>Pay Registration Bill</t>
-  </si>
-  <si>
     <t>Select Corporation Name from the list provided Enter the  Bill Account Number, Bill Account Holder Name. And key information required, and then click’ Register. The system will appear the confirm message to confirm the transaction.</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete registration Bill </t>
-  </si>
-  <si>
     <t xml:space="preserve">When the customer selects and clicks on Deregistration  Bill. The screen will display all the registered bills. Tick the box of payee(s) the customer intends to delete from the list and click cancel. Then the system will appear message confirmation to confirm the transaction. </t>
   </si>
   <si>
@@ -153,24 +105,12 @@
     <t>Bank A creates an investigation case when the customer of bank A states that the fund transferred to Bank B has not been credited</t>
   </si>
   <si>
-    <t>Transaction Details</t>
-  </si>
-  <si>
     <t>Bank B obtains transaction details of the payment</t>
   </si>
   <si>
-    <t>Cheque service is the functionality by which the customer may enquiries cheque status, whether it is paid, unpaid, stopped or returned. It also allows customer to stop cheque payment and to order cheque bookto be delivered at home .The customer must be logged into Banking System.</t>
-  </si>
-  <si>
     <t>View Account allows a customer to view the account balance information on deposit (saving/current), credit card, etc. The customer can also view transaction history with retention period up to a maximum of 90 days. Within this feature, the customer can request for account such as “view online, by e-mail or by post option. But the customer most be logged in the internet bank. Input required for function is account number and account name</t>
   </si>
   <si>
-    <t>If the customer wants to display his/her payment histor, review old transactions  just he/she has to click on Bill Payment History, the system will display the transaction he/she done.</t>
-  </si>
-  <si>
-    <t>Deposit Cheque</t>
-  </si>
-  <si>
     <t>function dealswith deposit cheque at ATM or branch office. Input required for this are Account number, account type and Customer Name</t>
   </si>
   <si>
@@ -216,9 +156,6 @@
     <t>Fn14</t>
   </si>
   <si>
-    <t>Fn15</t>
-  </si>
-  <si>
     <t>Fn16</t>
   </si>
   <si>
@@ -250,6 +187,63 @@
   </si>
   <si>
     <t xml:space="preserve">Function will be used by banker to restock the cash at ATM with required  bill types and necessary amount of cash. </t>
+  </si>
+  <si>
+    <t>Verify_PIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View_Account </t>
+  </si>
+  <si>
+    <t>Transfer_Money</t>
+  </si>
+  <si>
+    <t>Withdraw_cash</t>
+  </si>
+  <si>
+    <t>Apply_loan</t>
+  </si>
+  <si>
+    <t>Restock_cash</t>
+  </si>
+  <si>
+    <t>Cheque_Services</t>
+  </si>
+  <si>
+    <t>Review_transactions</t>
+  </si>
+  <si>
+    <t>Limit_Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer_Funds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay_Bills </t>
+  </si>
+  <si>
+    <t>Pay_Registered_Payment</t>
+  </si>
+  <si>
+    <t>Open_Payment</t>
+  </si>
+  <si>
+    <t>Pay_Registration_Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete_registration_Bill </t>
+  </si>
+  <si>
+    <t>Transaction_Details</t>
+  </si>
+  <si>
+    <t>Deposit_Cheque</t>
+  </si>
+  <si>
+    <t>If the customer wants to display his/her payment history, review old transactions after withdraw amount or deposit etc. just he/she has to click on Bill Payment History, the system will display the transaction he/she done.</t>
+  </si>
+  <si>
+    <t>Cheque service is the functionality by which the customer may enquiries cheque status, whether it is paid, unpaid, stopped or returned. It also allows customer to stop cheque payment and to order cheque book to be delivered at home .The customer must be logged into Banking System.</t>
   </si>
 </sst>
 </file>
@@ -670,7 +664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,285 +690,274 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="56.1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="27.95" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="C21" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
